--- a/biology/Médecine/Michael_Pius_Erdl/Michael_Pius_Erdl.xlsx
+++ b/biology/Médecine/Michael_Pius_Erdl/Michael_Pius_Erdl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Pius Erdl, né le 15 mai 1815 à Bodenmais et mort le 25 février 1848 à Munich, est un médecin allemand.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Pius Erdl naît le 15 mai 1815 à Bodenmais[1]. Il étudie la médecine à Munich[2].
-Il s'applique particulièrement à l'anatomie comparée et à l'embryologie sous la direction de Döllinger; après la mort de son maître, il publie ses leçons sur la physiologie[3]. En 1836 et 1837, il accompagne son autre maître, Schubert, en Orient[4], où il découvre, grâce à ses mesures barométriques, que le niveau de la Mer Morte est inférieur à celui de la Méditerranée[2]. À son retour en Allemagne, en 1840, se fait recevoir privat-docent à l'université de Munich, et enseigne la physiologie, l'anatomie comparée et l'embryologie[4]. En 1841, il est nommé professeur extraordinaire et adjoint aux collections anatomiques de l'Etat, puis en 1844, professeur ordinaire[5].
-Mort le 25 février 1848 à Munich, Michael Pius Erdl est inhumé à l'ancien cimetière du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Pius Erdl naît le 15 mai 1815 à Bodenmais. Il étudie la médecine à Munich.
+Il s'applique particulièrement à l'anatomie comparée et à l'embryologie sous la direction de Döllinger; après la mort de son maître, il publie ses leçons sur la physiologie. En 1836 et 1837, il accompagne son autre maître, Schubert, en Orient, où il découvre, grâce à ses mesures barométriques, que le niveau de la Mer Morte est inférieur à celui de la Méditerranée. À son retour en Allemagne, en 1840, se fait recevoir privat-docent à l'université de Munich, et enseigne la physiologie, l'anatomie comparée et l'embryologie. En 1841, il est nommé professeur extraordinaire et adjoint aux collections anatomiques de l'Etat, puis en 1844, professeur ordinaire.
+Mort le 25 février 1848 à Munich, Michael Pius Erdl est inhumé à l'ancien cimetière du Sud.
 </t>
         </is>
       </c>
@@ -544,21 +558,23 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De oculo; Munich 1839[2].
-De piscium glandula chloroideali; 1839[2].
-De helicis algicae vasis sanguiferis; 1840[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De oculo; Munich 1839.
+De piscium glandula chloroideali; 1839.
+De helicis algicae vasis sanguiferis; 1840.
 Ueber den Bau der Zähne bei den Wirbelthieren
 Ueber den innern Bau der Haare
-Ueber den Kreislauf der Infusorien; 1841[2].
+Ueber den Kreislauf der Infusorien; 1841.
 Ueber die Fangarme der Polypen
-Tafeln zur vergleichenden Anatomie des Schädels; 1841[2].
-Über die Entwickelung des Hummereies; Munich, 1843[2].
+Tafeln zur vergleichenden Anatomie des Schädels; 1841.
+Über die Entwickelung des Hummereies; Munich, 1843.
 Neubearbeitung von Johann Heinrich Oesterreicher (de) Anatomischen Atlas; 18 Hefte, Erlangen 1843–45
-Leitfaden zur Kenntniß des Baues des menschl. Leibes; 2 Theile, Munich 1843–45[2].
-Die Entwicklung des Menschen und des Hühnchens im Eie; Heft 1 und 2, Munich 1845–46[2].
-Ueber den Gymnarchus niloiicus;  Bulletin d. Königl. Bayerischen Akademie d. Wissensch. München, Nr. 69 (10. Oct. 1846) und Nr. 13 (13. April 1847)[2].
+Leitfaden zur Kenntniß des Baues des menschl. Leibes; 2 Theile, Munich 1843–45.
+Die Entwicklung des Menschen und des Hühnchens im Eie; Heft 1 und 2, Munich 1845–46.
+Ueber den Gymnarchus niloiicus;  Bulletin d. Königl. Bayerischen Akademie d. Wissensch. München, Nr. 69 (10. Oct. 1846) und Nr. 13 (13. April 1847).
 Ueber eine neue Form elektrischen Apparates bei Gymnarchus niloticus; Münchener Gelehrt. Anz., 1847, vol. XXIV.</t>
         </is>
       </c>
